--- a/LoopGame/LoopGame/Content/csv/Stage09.xlsx
+++ b/LoopGame/LoopGame/Content/csv/Stage09.xlsx
@@ -12,8 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="11808" windowHeight="8064"/>
   </bookViews>
   <sheets>
-    <sheet name="TestStage07" sheetId="1" r:id="rId1"/>
+    <sheet name="Stage06" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Stage06!$A$1:$P$9</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -386,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -415,16 +418,16 @@
         <v>1</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1">
         <v>1</v>
       </c>
       <c r="J1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1">
         <v>1</v>
@@ -453,28 +456,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -497,43 +500,43 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>5</v>
@@ -547,43 +550,43 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>5</v>
@@ -600,28 +603,28 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -650,25 +653,25 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -703,25 +706,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -753,28 +756,28 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -815,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>1</v>

--- a/LoopGame/LoopGame/Content/csv/Stage09.xlsx
+++ b/LoopGame/LoopGame/Content/csv/Stage09.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="11808" windowHeight="8064"/>
   </bookViews>
   <sheets>
-    <sheet name="Stage06" sheetId="1" r:id="rId1"/>
+    <sheet name="Stage09" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Stage06!$A$1:$P$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Stage09!$A$1:$P$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -390,7 +390,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
